--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail5 Features.xlsx
@@ -1095,7 +1095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,29 +1106,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1149,115 +1147,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1274,72 +1262,66 @@
         <v>1.368488712928189e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.222485806550424</v>
+        <v>1.015842633021402e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.6419981174559</v>
+        <v>2.710287724818095e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.015842633021402e-06</v>
+        <v>0.1094905943096881</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.710287724818095e-06</v>
+        <v>0.4178675196530775</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1094905943096881</v>
+        <v>0.1862321875944951</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4178675196530775</v>
+        <v>1.710403876720197</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1862321875944951</v>
+        <v>1.556916741000075</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.643547182740604</v>
+        <v>4.016423722376604</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.556916741000075</v>
+        <v>4.842331683237793e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.016423722376604</v>
+        <v>35841523.43235481</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.842331683237793e-15</v>
+        <v>3.117928279681274e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>35841523.43235481</v>
+        <v>6.2205309562486</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.117928279681274e-06</v>
+        <v>0.0001719876052785981</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.2205309562486</v>
+        <v>9.880796030530828</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001719876052785981</v>
+        <v>1.305657454939847</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.880796030530828</v>
+        <v>0.01679117229561182</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.305657454939847</v>
+        <v>2.868780089155571</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01679117229561182</v>
+        <v>0.9532219364351256</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.868780089155571</v>
+        <v>1.767610522305291</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9532219364351256</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.767610522305291</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1554753606122515</v>
       </c>
     </row>
@@ -1354,72 +1336,66 @@
         <v>9.939720925104201e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.250809476963795</v>
+        <v>7.287791694634217e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8.759991217714809</v>
+        <v>2.722619733001023e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.287791694634217e-07</v>
+        <v>0.09997731428306816</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.722619733001023e-06</v>
+        <v>0.4515553632663121</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09997731428306816</v>
+        <v>0.2134900008028598</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4515553632663121</v>
+        <v>1.71057637798707</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.2134900008028598</v>
+        <v>1.53025753781044</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.644916013359178</v>
+        <v>4.035087990584653</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.53025753781044</v>
+        <v>4.797638950492185e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.035087990584653</v>
+        <v>36954801.37027861</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.797638950492185e-15</v>
+        <v>3.034032036132341e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>36954801.37027861</v>
+        <v>6.551930868119738</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.034032036132341e-06</v>
+        <v>0.000177434541277391</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.551930868119738</v>
+        <v>11.90427744100266</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000177434541277391</v>
+        <v>1.073488193474333</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.90427744100266</v>
+        <v>0.02514457202233784</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.073488193474333</v>
+        <v>2.604395996673668</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02514457202233784</v>
+        <v>0.9531706837063065</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.604395996673668</v>
+        <v>1.797314421026428</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9531706837063065</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.797314421026428</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1633044943654832</v>
       </c>
     </row>
@@ -1434,72 +1410,66 @@
         <v>7.700763981037896e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.9311637767680252</v>
+        <v>5.092233581237947e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.38290305876478</v>
+        <v>2.730516119805775e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.092233581237947e-07</v>
+        <v>0.07842161673260477</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.730516119805775e-06</v>
+        <v>0.4629392896746317</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07842161673260477</v>
+        <v>0.2200513146683613</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.4629392896746317</v>
+        <v>1.707817926326715</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.2200513146683613</v>
+        <v>1.496027781119736</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.645130622166962</v>
+        <v>4.080821891812151</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.496027781119736</v>
+        <v>4.690706936481166e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.080821891812151</v>
+        <v>37466074.48858706</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.690706936481166e-15</v>
+        <v>2.989791390612906e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>37466074.48858706</v>
+        <v>6.584376930772279</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.989791390612906e-06</v>
+        <v>0.0001632247518831532</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.584376930772279</v>
+        <v>11.31340592969964</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001632247518831532</v>
+        <v>1.09764186774163</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.31340592969964</v>
+        <v>0.02089165076034815</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.09764186774163</v>
+        <v>2.698420917665724</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02089165076034815</v>
+        <v>0.9549746915710688</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.698420917665724</v>
+        <v>1.787653842134143</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9549746915710688</v>
+        <v>10</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.787653842134143</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1702053300904365</v>
       </c>
     </row>
@@ -1514,72 +1484,66 @@
         <v>6.680107530459043e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1181857139518449</v>
+        <v>3.362374871314599e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6277718212718439</v>
+        <v>2.734948772477655e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.362374871314599e-07</v>
+        <v>0.04437793009694979</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.734948772477655e-06</v>
+        <v>0.4231506948803114</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04437793009694979</v>
+        <v>0.1806784569051167</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.4231506948803114</v>
+        <v>1.720609142419123</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1806784569051167</v>
+        <v>1.484275109666139</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.655539242182287</v>
+        <v>4.175308048315626</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.484275109666139</v>
+        <v>4.480810068793408e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.175308048315626</v>
+        <v>40423869.08270343</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.480810068793408e-15</v>
+        <v>2.795240434360482e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>40423869.08270343</v>
+        <v>7.322043303097419</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.795240434360482e-06</v>
+        <v>0.0001465106941968638</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.322043303097419</v>
+        <v>9.299722491628676</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001465106941968638</v>
+        <v>1.238463183225479</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.299722491628676</v>
+        <v>0.01267095371460888</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.238463183225479</v>
+        <v>2.952838332151662</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01267095371460888</v>
+        <v>0.9555519823174986</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.952838332151662</v>
+        <v>1.764353330040006</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9555519823174986</v>
+        <v>10</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.764353330040006</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.173737239650084</v>
       </c>
     </row>
@@ -1594,72 +1558,66 @@
         <v>6.422961772162657e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.003356803128408179</v>
+        <v>2.380866995997616e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8091895827386555</v>
+        <v>2.736649154322244e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.380866995997616e-07</v>
+        <v>0.008821450452227389</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.736649154322244e-06</v>
+        <v>0.3468912514727032</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.008821450452227389</v>
+        <v>0.1201955488831395</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3468912514727032</v>
+        <v>1.726324403220324</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1201955488831395</v>
+        <v>1.459106615709991</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.664941350298977</v>
+        <v>4.370273027881195</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.459106615709991</v>
+        <v>4.089935330686903e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.370273027881195</v>
+        <v>44774970.34971901</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.089935330686903e-15</v>
+        <v>2.52813231856942e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>44774970.34971901</v>
+        <v>8.1994940476489</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.52813231856942e-06</v>
+        <v>0.0001415274420769817</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.1994940476489</v>
+        <v>7.957135983552178</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001415274420769817</v>
+        <v>1.443030131006819</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.957135983552178</v>
+        <v>0.008960953370999419</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.443030131006819</v>
+        <v>3.057288510570103</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008960953370999419</v>
+        <v>0.9548785255192285</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.057288510570103</v>
+        <v>1.754718182653324</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9548785255192285</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.754718182653324</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.179257475969951</v>
       </c>
     </row>
@@ -1674,72 +1632,66 @@
         <v>6.431261375950934e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.01745237423516711</v>
+        <v>2.380866995997616e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8209327911217037</v>
+        <v>2.736321412918017e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.380866995997616e-07</v>
+        <v>-0.0167482418443175</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.736321412918017e-06</v>
+        <v>0.2873810203125468</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0167482418443175</v>
+        <v>0.08278215054336843</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2873810203125468</v>
+        <v>1.729164700033955</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.08278215054336843</v>
+        <v>1.45303121224121</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.666514670797533</v>
+        <v>4.666450827181049</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.45303121224121</v>
+        <v>3.454273556192668e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.666450827181049</v>
+        <v>52997433.3774448</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.454273556192668e-15</v>
+        <v>2.136838482663583e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>52997433.3774448</v>
+        <v>9.702114665559767</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.136838482663583e-06</v>
+        <v>0.0001443002408603071</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9.702114665559767</v>
+        <v>8.378094374256568</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001443002408603071</v>
+        <v>1.358125583380231</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.378094374256568</v>
+        <v>0.01012878965571068</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.358125583380231</v>
+        <v>3.00500982533858</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01012878965571068</v>
+        <v>0.9557007582902156</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.00500982533858</v>
+        <v>1.762235885961679</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9557007582902156</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.762235885961679</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1909662677583005</v>
       </c>
     </row>
@@ -2116,7 +2068,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550465564862663</v>
+        <v>1.503118986087061</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.851362393803811</v>
@@ -2205,7 +2157,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.563650950913728</v>
+        <v>1.508138575677773</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.952059878635607</v>
@@ -2294,7 +2246,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582865431786337</v>
+        <v>1.513950260947053</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.889726614206928</v>
@@ -2383,7 +2335,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.575024407251826</v>
+        <v>1.505411412038983</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.033217211751783</v>
@@ -2472,7 +2424,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.57116645597443</v>
+        <v>1.496945914722597</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.754489412269328</v>
@@ -2561,7 +2513,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.572282920025198</v>
+        <v>1.495314259823965</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.640775411436654</v>
@@ -2650,7 +2602,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573160452629667</v>
+        <v>1.497289174315866</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.92035517823304</v>
@@ -2739,7 +2691,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.571616569310938</v>
+        <v>1.497129583874334</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.813065018200736</v>
@@ -2828,7 +2780,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.564493488099921</v>
+        <v>1.500535526580324</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.948405524034452</v>
@@ -2917,7 +2869,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56327196636242</v>
+        <v>1.493349549114248</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.760382597507893</v>
@@ -3006,7 +2958,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.580174096882967</v>
+        <v>1.502388449370632</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.740461706717248</v>
@@ -3095,7 +3047,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.581089681355999</v>
+        <v>1.508195643922224</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.702506145961099</v>
@@ -3184,7 +3136,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.585191727025175</v>
+        <v>1.503088434469352</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.735967396399864</v>
@@ -3273,7 +3225,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588199994926088</v>
+        <v>1.506147528281603</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.669126100524335</v>
@@ -3362,7 +3314,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580867593699894</v>
+        <v>1.501243228575219</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.720058810274809</v>
@@ -3451,7 +3403,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.573377535219483</v>
+        <v>1.495896240729128</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.726526591080474</v>
@@ -3540,7 +3492,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.559978150987966</v>
+        <v>1.489832045269291</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.668824847965336</v>
@@ -3629,7 +3581,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.554195729687373</v>
+        <v>1.483723561615408</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.758415411402926</v>
@@ -3718,7 +3670,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.549519555908106</v>
+        <v>1.486208888095798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.777268624159145</v>
@@ -3807,7 +3759,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564188543248753</v>
+        <v>1.495531033318497</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.777254386877189</v>
@@ -3896,7 +3848,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.567695073231495</v>
+        <v>1.50029727231435</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.94326154791468</v>
@@ -3985,7 +3937,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575498843914825</v>
+        <v>1.50799337544193</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.873176215277137</v>
@@ -4074,7 +4026,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574893140914188</v>
+        <v>1.506085948243697</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.811531547676988</v>
@@ -4163,7 +4115,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.569799139993458</v>
+        <v>1.499200176665629</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.953015018140581</v>
@@ -4252,7 +4204,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577246101127392</v>
+        <v>1.5054194002976</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.09277355875122</v>
@@ -4341,7 +4293,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.571212323671232</v>
+        <v>1.494419464159833</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.055828054066978</v>
@@ -4430,7 +4382,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.564206816719642</v>
+        <v>1.488224846871634</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.094355065477115</v>
@@ -4519,7 +4471,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.553573159742833</v>
+        <v>1.484730724977964</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.089569211885117</v>
@@ -4608,7 +4560,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.539308831261718</v>
+        <v>1.472379674435542</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.035652998929686</v>
@@ -4697,7 +4649,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.538725172970515</v>
+        <v>1.470068021570022</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.978501186774527</v>
@@ -4786,7 +4738,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.543367386309141</v>
+        <v>1.473313065622647</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.001086162750588</v>
@@ -4875,7 +4827,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.550128625208663</v>
+        <v>1.479506306424024</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.879454268658439</v>
@@ -4964,7 +4916,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.534987260504592</v>
+        <v>1.465381588798396</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.458677719264854</v>
@@ -5053,7 +5005,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.525954040594122</v>
+        <v>1.453665717508956</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.648976684474393</v>
@@ -5142,7 +5094,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.522135724997046</v>
+        <v>1.455526502530539</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.609005777387742</v>
@@ -5231,7 +5183,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524523106254639</v>
+        <v>1.456037419459747</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.548065593666291</v>
@@ -5320,7 +5272,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.522232786818489</v>
+        <v>1.447936323866253</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.6578904757693</v>
@@ -5409,7 +5361,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516522960553071</v>
+        <v>1.448211597424796</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.767048626787816</v>
@@ -5498,7 +5450,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.512325410339962</v>
+        <v>1.447243631148498</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.810822820969238</v>
@@ -5587,7 +5539,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.509357633625156</v>
+        <v>1.44553413398346</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.718026614291986</v>
@@ -5676,7 +5628,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.515222208319491</v>
+        <v>1.454742411411609</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.780739119330624</v>
@@ -5765,7 +5717,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.514993149588096</v>
+        <v>1.452566431989311</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.642276455083485</v>
@@ -5854,7 +5806,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.520138474324302</v>
+        <v>1.450292434962224</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.836645187719796</v>
@@ -5943,7 +5895,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.525855260952216</v>
+        <v>1.455582802717293</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.885295845130965</v>
@@ -6032,7 +5984,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.535467068217239</v>
+        <v>1.461570572252984</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.926059561136555</v>
@@ -6121,7 +6073,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.537821852869956</v>
+        <v>1.450319277086438</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.838413606210576</v>
@@ -6210,7 +6162,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.534845409983461</v>
+        <v>1.450876092033443</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.570457281066036</v>
@@ -6299,7 +6251,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.550322755464202</v>
+        <v>1.461152793824953</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.877656038172922</v>
@@ -6388,7 +6340,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.562701266565953</v>
+        <v>1.469083190874773</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.990427968992756</v>
@@ -6477,7 +6429,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.554657237420773</v>
+        <v>1.456845423347324</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.014872301333809</v>
@@ -6566,7 +6518,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.549442395777222</v>
+        <v>1.440565271605669</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.975426578911117</v>
@@ -6852,7 +6804,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.411615505240266</v>
+        <v>1.395901320498042</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.312201871087306</v>
@@ -6941,7 +6893,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.403777469074281</v>
+        <v>1.383770137384621</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.156613175080612</v>
@@ -7030,7 +6982,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.430244059607924</v>
+        <v>1.4092824281929</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.38909524401129</v>
@@ -7119,7 +7071,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.451307735260812</v>
+        <v>1.428868290512238</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.560655646293879</v>
@@ -7208,7 +7160,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.464485677736008</v>
+        <v>1.438991772991601</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.419451925822169</v>
@@ -7297,7 +7249,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.486694134843974</v>
+        <v>1.45635917584706</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.589216442586073</v>
@@ -7386,7 +7338,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.510242701579448</v>
+        <v>1.474663088962671</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.491149560345775</v>
@@ -7475,7 +7427,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.513401617092674</v>
+        <v>1.46911022397248</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.480724198308435</v>
@@ -7564,7 +7516,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.542388531148651</v>
+        <v>1.496805008477795</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.462821877142331</v>
@@ -7653,7 +7605,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.572607458694918</v>
+        <v>1.517630875713851</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.430680601506631</v>
@@ -7742,7 +7694,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.582818153582166</v>
+        <v>1.521142550194752</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.613283062856467</v>
@@ -7831,7 +7783,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.586218592444924</v>
+        <v>1.525762112564266</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.656483696553005</v>
@@ -7920,7 +7872,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590314509238271</v>
+        <v>1.529534528842043</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.60156605600662</v>
@@ -8009,7 +7961,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.590002093615119</v>
+        <v>1.535435054145352</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.655208905932209</v>
@@ -8098,7 +8050,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.586142002184835</v>
+        <v>1.531567383716529</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.575100557666135</v>
@@ -8187,7 +8139,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.585171033853778</v>
+        <v>1.530970360750899</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.569727986932132</v>
@@ -8276,7 +8228,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574525044319641</v>
+        <v>1.521362512339034</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.555773318088816</v>
@@ -8365,7 +8317,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5477109862254</v>
+        <v>1.498274645615741</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.585213076102884</v>
@@ -8454,7 +8406,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.534515549071462</v>
+        <v>1.488369910175102</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.546862811172656</v>
@@ -8543,7 +8495,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.518208292303101</v>
+        <v>1.474225673638331</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.490586961649678</v>
@@ -8632,7 +8584,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.513278845717232</v>
+        <v>1.469015589456916</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.533934496700261</v>
@@ -8721,7 +8673,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525926023235295</v>
+        <v>1.483839844700341</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.531867933318694</v>
@@ -8810,7 +8762,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.526436505612258</v>
+        <v>1.487831593277457</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.527009768897561</v>
@@ -8899,7 +8851,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.518369364048008</v>
+        <v>1.477013809656186</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.523101409439734</v>
@@ -8988,7 +8940,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.509550330256944</v>
+        <v>1.473259374425423</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.524775938558523</v>
@@ -9077,7 +9029,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512072741447899</v>
+        <v>1.47155318561238</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.568839660380158</v>
@@ -9166,7 +9118,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.515725227561032</v>
+        <v>1.477764982885083</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.63370560106953</v>
@@ -9255,7 +9207,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.513990608962259</v>
+        <v>1.471421945785034</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.541675842654246</v>
@@ -9344,7 +9296,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.500649533224329</v>
+        <v>1.46071835702289</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.629839255670331</v>
@@ -9433,7 +9385,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.50307685351136</v>
+        <v>1.45997866916611</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.618789039481424</v>
@@ -9522,7 +9474,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.509259283491347</v>
+        <v>1.463657096669073</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.579301723168599</v>
@@ -9611,7 +9563,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.535442851798072</v>
+        <v>1.491333654201146</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.20254039563897</v>
@@ -9700,7 +9652,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.54204682145463</v>
+        <v>1.500018550119487</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.434885559399135</v>
@@ -9789,7 +9741,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.550360289224222</v>
+        <v>1.508649336378709</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.377007933936278</v>
@@ -9878,7 +9830,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584229357632226</v>
+        <v>1.547947621572965</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.470260649870446</v>
@@ -9967,7 +9919,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.653933490933263</v>
+        <v>1.623243273653644</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.45066789231305</v>
@@ -10056,7 +10008,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.623308886909917</v>
+        <v>1.597854323678245</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.471763867808528</v>
@@ -10145,7 +10097,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.636732242723366</v>
+        <v>1.613655566651674</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.57555669063123</v>
@@ -10234,7 +10186,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.631212893201958</v>
+        <v>1.610705261816352</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.671822908548133</v>
@@ -10323,7 +10275,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.641048946515243</v>
+        <v>1.618081466066103</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.556597164008569</v>
@@ -10412,7 +10364,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.631289594550475</v>
+        <v>1.614586471386631</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.512864791521328</v>
@@ -10501,7 +10453,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.621036302385258</v>
+        <v>1.59974278354868</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.60378308948668</v>
@@ -10590,7 +10542,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.617711228065425</v>
+        <v>1.593310978059624</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.722338713671317</v>
@@ -10679,7 +10631,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.619529153387678</v>
+        <v>1.596605912333754</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.736730406826726</v>
@@ -10768,7 +10720,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.614957512764241</v>
+        <v>1.594664301378245</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.588548828265663</v>
@@ -10857,7 +10809,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.610341839490388</v>
+        <v>1.581258273712751</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.679126118509556</v>
@@ -10946,7 +10898,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61118832928836</v>
+        <v>1.580968127175552</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.546102335900831</v>
@@ -11035,7 +10987,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.614501550203731</v>
+        <v>1.581578167170879</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.736862930826224</v>
@@ -11124,7 +11076,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610178956105518</v>
+        <v>1.569184786084579</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.712222443078481</v>
@@ -11213,7 +11165,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.586927876053259</v>
+        <v>1.547549048795126</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.670190654405924</v>
@@ -11302,7 +11254,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.529184326973186</v>
+        <v>1.481258296466641</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.391920565400301</v>
@@ -11588,7 +11540,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.520072817290892</v>
+        <v>1.511049880424569</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.800874387782537</v>
@@ -11677,7 +11629,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.494633705903925</v>
+        <v>1.477976171101908</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.622429860846183</v>
@@ -11766,7 +11718,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.498859590627271</v>
+        <v>1.473888668805533</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.691834535616867</v>
@@ -11855,7 +11807,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.500813679959362</v>
+        <v>1.479706836901788</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.724132576005001</v>
@@ -11944,7 +11896,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.518343156286601</v>
+        <v>1.492533625074175</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.867714045818813</v>
@@ -12033,7 +11985,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.539353180148633</v>
+        <v>1.511609603563404</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.808773341809056</v>
@@ -12122,7 +12074,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.559798681796109</v>
+        <v>1.5304955549411</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.964290880527797</v>
@@ -12211,7 +12163,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.56237098974137</v>
+        <v>1.527238823157665</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.930176177913731</v>
@@ -12300,7 +12252,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.573605497096887</v>
+        <v>1.540575091711903</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.913936851468255</v>
@@ -12389,7 +12341,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.608591812878276</v>
+        <v>1.567544351570997</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.705470648706661</v>
@@ -12478,7 +12430,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.610175251877524</v>
+        <v>1.568877920775716</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.76873738637827</v>
@@ -12567,7 +12519,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.619704202212171</v>
+        <v>1.584273996533531</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.875819981338316</v>
@@ -12656,7 +12608,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.623677815690394</v>
+        <v>1.586496314456192</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.89119414614064</v>
@@ -12745,7 +12697,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.635502137141326</v>
+        <v>1.598509772249622</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.906141139266602</v>
@@ -12834,7 +12786,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.624172437539414</v>
+        <v>1.59111731809361</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.789164434391258</v>
@@ -12923,7 +12875,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.621115720633546</v>
+        <v>1.586298570643126</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.861680053080805</v>
@@ -13012,7 +12964,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.630669416491881</v>
+        <v>1.596185152594174</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.868523873692352</v>
@@ -13101,7 +13053,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.600766318612771</v>
+        <v>1.573545820709465</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.463774786016897</v>
@@ -13190,7 +13142,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593253372792386</v>
+        <v>1.562660637911012</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.39376206094471</v>
@@ -13279,7 +13231,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.570348920647344</v>
+        <v>1.545512151878396</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.48370335209608</v>
@@ -13368,7 +13320,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548563089118968</v>
+        <v>1.52350362295506</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.400003255928756</v>
@@ -13457,7 +13409,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.55119133485945</v>
+        <v>1.525671324350089</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.581272250281577</v>
@@ -13546,7 +13498,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.555877262221473</v>
+        <v>1.531745023694832</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.40962314326153</v>
@@ -13635,7 +13587,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.548826679801916</v>
+        <v>1.524514726462887</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.584690702568585</v>
@@ -13724,7 +13676,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.527454442142945</v>
+        <v>1.505236002376786</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.553344007304752</v>
@@ -13813,7 +13765,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.519617078877219</v>
+        <v>1.490723273016256</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.505186273993748</v>
@@ -13902,7 +13854,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.514867912574789</v>
+        <v>1.483614796568782</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.488402596769047</v>
@@ -13991,7 +13943,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.508517042490197</v>
+        <v>1.474548356401086</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.440253412355132</v>
@@ -14080,7 +14032,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.490835253629309</v>
+        <v>1.459746899776376</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.448098607879055</v>
@@ -14169,7 +14121,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.498489356095511</v>
+        <v>1.466711961585696</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.539088550132329</v>
@@ -14258,7 +14210,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.50934774461082</v>
+        <v>1.477843626660594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.537238956919864</v>
@@ -14347,7 +14299,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.529681284814493</v>
+        <v>1.499353546915168</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.647922313448781</v>
@@ -14436,7 +14388,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.520903217659908</v>
+        <v>1.48855661589535</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.800103611189737</v>
@@ -14525,7 +14477,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.513325583880367</v>
+        <v>1.478590407238912</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.416490783062068</v>
@@ -14614,7 +14566,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.52745361122925</v>
+        <v>1.481964579637098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.454821486967166</v>
@@ -14703,7 +14655,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.599451846656534</v>
+        <v>1.556635554738584</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.218934996012039</v>
@@ -14792,7 +14744,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.59425912297318</v>
+        <v>1.552408471802166</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.352948693385434</v>
@@ -14881,7 +14833,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601874795454751</v>
+        <v>1.566890946004469</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.311511020354019</v>
@@ -14970,7 +14922,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.595532695107506</v>
+        <v>1.563357865975337</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.233225867408846</v>
@@ -15059,7 +15011,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607872364436042</v>
+        <v>1.572518244603894</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.313882756178515</v>
@@ -15148,7 +15100,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.610490347842182</v>
+        <v>1.580480728916638</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.343465800703179</v>
@@ -15237,7 +15189,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.60809828741925</v>
+        <v>1.572933256653917</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.385465842866989</v>
@@ -15326,7 +15278,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.607900097737946</v>
+        <v>1.56653909736899</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.327574102141082</v>
@@ -15415,7 +15367,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.608209805307065</v>
+        <v>1.568235011702116</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.323175591161421</v>
@@ -15504,7 +15456,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.599524467483362</v>
+        <v>1.559946178479982</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.337466042125352</v>
@@ -15593,7 +15545,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591277245345904</v>
+        <v>1.543342766901938</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.379623685387301</v>
@@ -15682,7 +15634,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.581336720297585</v>
+        <v>1.531927223899939</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.494553812348382</v>
@@ -15771,7 +15723,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.592349923558452</v>
+        <v>1.540064163020615</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.297947668028685</v>
@@ -15860,7 +15812,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595438458787731</v>
+        <v>1.540975157036666</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.359773196731695</v>
@@ -15949,7 +15901,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.588384482469051</v>
+        <v>1.536167162645323</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.349792613287913</v>
@@ -16038,7 +15990,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.546165095969607</v>
+        <v>1.485797802882122</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.71070473208516</v>
@@ -16324,7 +16276,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.604841099983898</v>
+        <v>1.572386558480047</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.650512608610533</v>
@@ -16413,7 +16365,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.598116385784412</v>
+        <v>1.56741286022587</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.758001927512101</v>
@@ -16502,7 +16454,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.61007798990546</v>
+        <v>1.572178574242709</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.588476136570161</v>
@@ -16591,7 +16543,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.607207067400457</v>
+        <v>1.567958031803083</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.696913970994681</v>
@@ -16680,7 +16632,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.618973739341417</v>
+        <v>1.582204348266881</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.890637144201851</v>
@@ -16769,7 +16721,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.633284004793938</v>
+        <v>1.597006022693566</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.591354068021857</v>
@@ -16858,7 +16810,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.64427788407814</v>
+        <v>1.607902480326211</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.800089644202814</v>
@@ -16947,7 +16899,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.651507603094021</v>
+        <v>1.613594476003438</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.836540691176309</v>
@@ -17036,7 +16988,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.656088863338305</v>
+        <v>1.621708119014732</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.011712776987006</v>
@@ -17125,7 +17077,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.668439054933176</v>
+        <v>1.625459338230488</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.924711530684798</v>
@@ -17214,7 +17166,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.677919499345248</v>
+        <v>1.630202806809889</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.000998729181245</v>
@@ -17303,7 +17255,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.694469334456163</v>
+        <v>1.656889817611965</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.034108895847451</v>
@@ -17392,7 +17344,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.706259846807242</v>
+        <v>1.664001409983219</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.088787692812391</v>
@@ -17481,7 +17433,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.712257872816992</v>
+        <v>1.674204577551601</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.085505373326964</v>
@@ -17570,7 +17522,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.711303218040473</v>
+        <v>1.671316221142405</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.176823070620697</v>
@@ -17659,7 +17611,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.704266396718283</v>
+        <v>1.656024176227603</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.086952800269724</v>
@@ -17748,7 +17700,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.685441009770014</v>
+        <v>1.645320629089856</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.994486451980355</v>
@@ -17837,7 +17789,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.667087110765635</v>
+        <v>1.633238917885313</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.165111477539792</v>
@@ -17926,7 +17878,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.665278579803688</v>
+        <v>1.623712362415918</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.134024654163597</v>
@@ -18015,7 +17967,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.664459162797978</v>
+        <v>1.622008411002273</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.281041619953506</v>
@@ -18104,7 +18056,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.659594066306946</v>
+        <v>1.608238647620541</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.050873306739133</v>
@@ -18193,7 +18145,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.660534023537452</v>
+        <v>1.603146729685247</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.298552551239103</v>
@@ -18282,7 +18234,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.658985600921941</v>
+        <v>1.599736200308242</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.976141573646427</v>
@@ -18371,7 +18323,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.652960838787639</v>
+        <v>1.592216883737531</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.251642830706363</v>
@@ -18460,7 +18412,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.641183852014863</v>
+        <v>1.584237817233215</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.329194097423099</v>
@@ -18549,7 +18501,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.627264494135223</v>
+        <v>1.568052458581979</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.257941737447712</v>
@@ -18638,7 +18590,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.610493711387573</v>
+        <v>1.545260115184985</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.260644446613876</v>
@@ -18727,7 +18679,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.604085293911463</v>
+        <v>1.542299409185198</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.991927742401068</v>
@@ -18816,7 +18768,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.585160180401019</v>
+        <v>1.525948047156798</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.176013204073048</v>
@@ -18905,7 +18857,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585861197695007</v>
+        <v>1.52902759929321</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.169213628553221</v>
@@ -18994,7 +18946,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.587579892695303</v>
+        <v>1.536989604448828</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.109301642412979</v>
@@ -19083,7 +19035,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.606941272805259</v>
+        <v>1.548603416202717</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.98283763869426</v>
@@ -19172,7 +19124,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.598809842961917</v>
+        <v>1.542496023235061</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.0130461475684</v>
@@ -19261,7 +19213,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588074018777652</v>
+        <v>1.538282201459655</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.88517978476946</v>
@@ -19350,7 +19302,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.598542634758733</v>
+        <v>1.547612096356388</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.020920489407367</v>
@@ -19439,7 +19391,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.661307232793623</v>
+        <v>1.619468903881639</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.31795469798932</v>
@@ -19528,7 +19480,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.665061046356584</v>
+        <v>1.630129053310917</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.411266770432826</v>
@@ -19617,7 +19569,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.671869687612884</v>
+        <v>1.645816923533213</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.364690418911193</v>
@@ -19706,7 +19658,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.663295055470934</v>
+        <v>1.640454166029853</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.328691692118654</v>
@@ -19795,7 +19747,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.670417743833218</v>
+        <v>1.644075551344405</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.4304489954507</v>
@@ -19884,7 +19836,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.686660067122436</v>
+        <v>1.661114661836164</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.423839808252827</v>
@@ -19973,7 +19925,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.689009943516798</v>
+        <v>1.66006690030042</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.497692702076331</v>
@@ -20062,7 +20014,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.685611242792882</v>
+        <v>1.651064688153306</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.455766627019621</v>
@@ -20151,7 +20103,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.691434215982351</v>
+        <v>1.654798115032716</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.42045139315797</v>
@@ -20240,7 +20192,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.687104583897967</v>
+        <v>1.648675137079904</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.425604979857776</v>
@@ -20329,7 +20281,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.684873629749501</v>
+        <v>1.633597560679303</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.491344438663049</v>
@@ -20418,7 +20370,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.68155644976884</v>
+        <v>1.630121316127346</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.473375745907325</v>
@@ -20507,7 +20459,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.696907061756036</v>
+        <v>1.640492278687767</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.375777598226833</v>
@@ -20596,7 +20548,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.69621242994977</v>
+        <v>1.636569823098898</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.438267877229717</v>
@@ -20685,7 +20637,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.678916460251469</v>
+        <v>1.615214512021152</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.426451936978864</v>
@@ -20774,7 +20726,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.620480966985524</v>
+        <v>1.545935669149639</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.529254800611783</v>
@@ -21060,7 +21012,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.530154771507587</v>
+        <v>1.47830883458715</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.763916424717602</v>
@@ -21149,7 +21101,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.526396624656477</v>
+        <v>1.470229373036654</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.952146401801643</v>
@@ -21238,7 +21190,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.530437425747837</v>
+        <v>1.470012962566137</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.884811215933524</v>
@@ -21327,7 +21279,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.524834237492887</v>
+        <v>1.461763609658363</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.883787466002604</v>
@@ -21416,7 +21368,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.526725754053253</v>
+        <v>1.464089846747751</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.901622170277915</v>
@@ -21505,7 +21457,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.533641078359388</v>
+        <v>1.466402833243981</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.498675133313267</v>
@@ -21594,7 +21546,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.554646171161446</v>
+        <v>1.481351272847918</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.791537239454965</v>
@@ -21683,7 +21635,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.562107066755329</v>
+        <v>1.490455112366106</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.644611875338704</v>
@@ -21772,7 +21724,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.565898670492113</v>
+        <v>1.496469964436783</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.820440916643593</v>
@@ -21861,7 +21813,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.574628773310656</v>
+        <v>1.499085225345471</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.656434806491314</v>
@@ -21950,7 +21902,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.587420959359245</v>
+        <v>1.505507560273422</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.752233517862235</v>
@@ -22039,7 +21991,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.595592695237009</v>
+        <v>1.521974491925635</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.691275716580993</v>
@@ -22128,7 +22080,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.601631393150756</v>
+        <v>1.52107643598974</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.684978555342393</v>
@@ -22217,7 +22169,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.587234131671845</v>
+        <v>1.509488466084689</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.600894063270079</v>
@@ -22306,7 +22258,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.585364652915595</v>
+        <v>1.50521119838935</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.660012033515386</v>
@@ -22395,7 +22347,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.576805978345344</v>
+        <v>1.492469278560314</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.538433671343495</v>
@@ -22484,7 +22436,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.573634123803443</v>
+        <v>1.502342866048318</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.666709271378445</v>
@@ -22573,7 +22525,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.565597419244573</v>
+        <v>1.49391814544447</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.81228228203468</v>
@@ -22662,7 +22614,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.58098319749513</v>
+        <v>1.506991937206782</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.830503119995689</v>
@@ -22751,7 +22703,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.565114117416453</v>
+        <v>1.492829277650749</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.872835973443487</v>
@@ -22840,7 +22792,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.563985073675181</v>
+        <v>1.486592288268328</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.899690799905207</v>
@@ -22929,7 +22881,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567261077882427</v>
+        <v>1.490903349895385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.007094857204982</v>
@@ -23018,7 +22970,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568738979110975</v>
+        <v>1.492396341324472</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.780559538314172</v>
@@ -23107,7 +23059,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.560918134618987</v>
+        <v>1.482562941499271</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.046825108637571</v>
@@ -23196,7 +23148,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.557444115323698</v>
+        <v>1.481294366488643</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.988569541584988</v>
@@ -23285,7 +23237,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555027900673307</v>
+        <v>1.481675612296108</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.085194938927101</v>
@@ -23374,7 +23326,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.545866063404641</v>
+        <v>1.471762022873465</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.002081057726921</v>
@@ -23463,7 +23415,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.542750472887462</v>
+        <v>1.47525746077942</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.108378247689799</v>
@@ -23552,7 +23504,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.532399768107239</v>
+        <v>1.468314960088152</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.870342405637449</v>
@@ -23641,7 +23593,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.531273817257251</v>
+        <v>1.470102105794146</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.039108620838758</v>
@@ -23730,7 +23682,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.539341837445805</v>
+        <v>1.482295759176975</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.91738397591743</v>
@@ -23819,7 +23771,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.548605498016953</v>
+        <v>1.487741590134925</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.462526304431027</v>
@@ -23908,7 +23860,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.533224289920508</v>
+        <v>1.472656929420951</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.622827032388174</v>
@@ -23997,7 +23949,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.516252747210634</v>
+        <v>1.455192747092276</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.585344206876337</v>
@@ -24086,7 +24038,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.534735715636803</v>
+        <v>1.475556239239393</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.668673911228712</v>
@@ -24175,7 +24127,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.561957381109035</v>
+        <v>1.507054902821387</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.655661590976949</v>
@@ -24264,7 +24216,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.550181979400989</v>
+        <v>1.49760488611318</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.633506462107434</v>
@@ -24353,7 +24305,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.538381389726404</v>
+        <v>1.488702538821408</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.732547368828648</v>
@@ -24442,7 +24394,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.533424271516691</v>
+        <v>1.490295553556291</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.86388563459133</v>
@@ -24531,7 +24483,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.529713687346349</v>
+        <v>1.487104704349659</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.674865298767311</v>
@@ -24620,7 +24572,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535713948349385</v>
+        <v>1.491211921348501</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.865621230524515</v>
@@ -24709,7 +24661,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540026077424588</v>
+        <v>1.489513476784241</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.745676426364247</v>
@@ -24798,7 +24750,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.545229199584244</v>
+        <v>1.490457495429014</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.888122845952577</v>
@@ -24887,7 +24839,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.551400910643359</v>
+        <v>1.493604812132461</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.908669419610621</v>
@@ -24976,7 +24928,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557515784404904</v>
+        <v>1.495061761901424</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.986680910088543</v>
@@ -25065,7 +25017,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.557583820929122</v>
+        <v>1.485398628183862</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.946490629834875</v>
@@ -25154,7 +25106,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.558110120591527</v>
+        <v>1.486813700581517</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.710694005375388</v>
@@ -25243,7 +25195,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57625411773838</v>
+        <v>1.499682125725602</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.920187156026555</v>
@@ -25332,7 +25284,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585787750391982</v>
+        <v>1.50469154730591</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.112372281717722</v>
@@ -25421,7 +25373,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.572263289054301</v>
+        <v>1.486989572746035</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.007412520355214</v>
@@ -25510,7 +25462,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.553075124771287</v>
+        <v>1.453659687765266</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.854942351612085</v>
@@ -25796,7 +25748,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.358406652454148</v>
+        <v>1.370524275780925</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.509643629155966</v>
@@ -25885,7 +25837,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.36481015193471</v>
+        <v>1.375254819920778</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.364936263993337</v>
@@ -25974,7 +25926,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.376442127241283</v>
+        <v>1.38646495778136</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.364515026637552</v>
@@ -26063,7 +26015,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.389802878518754</v>
+        <v>1.397550886968037</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.338172327789909</v>
@@ -26152,7 +26104,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.408804359897683</v>
+        <v>1.415466070582514</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.426234076022728</v>
@@ -26241,7 +26193,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.436792665614922</v>
+        <v>1.446277313136554</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.45713090751189</v>
@@ -26330,7 +26282,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.463234248818173</v>
+        <v>1.472827181992284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.511248029815007</v>
@@ -26419,7 +26371,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.478715300744891</v>
+        <v>1.486519318300668</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.504935934495502</v>
@@ -26508,7 +26460,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.50327116910725</v>
+        <v>1.511227082277568</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.361292614640628</v>
@@ -26597,7 +26549,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.552483522662783</v>
+        <v>1.55756243377141</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.425996796080877</v>
@@ -26686,7 +26638,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.58082556021139</v>
+        <v>1.581481910714593</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.698856881041993</v>
@@ -26775,7 +26727,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605097209533128</v>
+        <v>1.609481241266097</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.87548839882961</v>
@@ -26864,7 +26816,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590137182424965</v>
+        <v>1.596579349962714</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.993009897492185</v>
@@ -26953,7 +26905,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.62067480600175</v>
+        <v>1.627262143825968</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.840820204683809</v>
@@ -27042,7 +26994,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615027642441504</v>
+        <v>1.618925754980761</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.939054960841082</v>
@@ -27131,7 +27083,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.588584785447202</v>
+        <v>1.596676769323447</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.625498118232101</v>
@@ -27220,7 +27172,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.591246556069569</v>
+        <v>1.60428746940983</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.463266684101009</v>
@@ -27309,7 +27261,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.556956809182579</v>
+        <v>1.572115782876072</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.419401073458409</v>
@@ -27398,7 +27350,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.553859897328555</v>
+        <v>1.567268250350647</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.372376745911549</v>
@@ -27487,7 +27439,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529036536504219</v>
+        <v>1.542663715083364</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.601780910378447</v>
@@ -27576,7 +27528,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.51622529689494</v>
+        <v>1.521547948449958</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.542235691185548</v>
@@ -27665,7 +27617,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514141869503009</v>
+        <v>1.520819773081334</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.566397519688296</v>
@@ -27754,7 +27706,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.518227057914614</v>
+        <v>1.520663900380237</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.519720668278472</v>
@@ -27843,7 +27795,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.512596735065675</v>
+        <v>1.512367371103448</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.554875994059356</v>
@@ -27932,7 +27884,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.496988082079533</v>
+        <v>1.499077925387284</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.712507556331923</v>
@@ -28021,7 +27973,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.48703374878448</v>
+        <v>1.483567034975036</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.543274403986529</v>
@@ -28110,7 +28062,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.474056259773481</v>
+        <v>1.463314615609953</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.451565561986378</v>
@@ -28199,7 +28151,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.485453277044623</v>
+        <v>1.470648038563281</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.409065368373015</v>
@@ -28288,7 +28240,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.468648283306379</v>
+        <v>1.456267184154189</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.528047315388208</v>
@@ -28377,7 +28329,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.482241809289699</v>
+        <v>1.467116104593989</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.390723551954095</v>
@@ -28466,7 +28418,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.503015416912656</v>
+        <v>1.4843466882806</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.644577923835112</v>
@@ -28555,7 +28507,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.526405828262479</v>
+        <v>1.504366130850108</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.690739617293723</v>
@@ -28644,7 +28596,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.534486087273384</v>
+        <v>1.509461041665983</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.639687496178961</v>
@@ -28733,7 +28685,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.540568766719879</v>
+        <v>1.514142893690904</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.514525508454881</v>
@@ -28822,7 +28774,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584991668990803</v>
+        <v>1.561410360009621</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.687514485182047</v>
@@ -28911,7 +28863,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.624441451478737</v>
+        <v>1.61556173212009</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.105127553776522</v>
@@ -29000,7 +28952,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.619740499537762</v>
+        <v>1.606583390689868</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.9486789569597</v>
@@ -29089,7 +29041,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.612512987494858</v>
+        <v>1.608148454880521</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.247827356664158</v>
@@ -29178,7 +29130,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.603644674493861</v>
+        <v>1.601741892427543</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.019866952842977</v>
@@ -29267,7 +29219,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.614319422229742</v>
+        <v>1.607336005070901</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.757373255012443</v>
@@ -29356,7 +29308,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.614405183862577</v>
+        <v>1.606776171576539</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.170051651644101</v>
@@ -29445,7 +29397,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.607779389709223</v>
+        <v>1.601415158327611</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.097527822694676</v>
@@ -29534,7 +29486,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.604345942159735</v>
+        <v>1.590058917034622</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.152019501285911</v>
@@ -29623,7 +29575,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596697545611286</v>
+        <v>1.58602778741966</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.240106508295432</v>
@@ -29712,7 +29664,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.581820399294282</v>
+        <v>1.571564477181244</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.240452159707978</v>
@@ -29801,7 +29753,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.578320271490531</v>
+        <v>1.555654326625114</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.178182735978245</v>
@@ -29890,7 +29842,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.567610540924361</v>
+        <v>1.543257733565777</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.967373194557619</v>
@@ -29979,7 +29931,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.576969074515843</v>
+        <v>1.547973833156914</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.822858624454194</v>
@@ -30068,7 +30020,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.565064909087819</v>
+        <v>1.529118511675597</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.973932654529104</v>
@@ -30157,7 +30109,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.528780754191025</v>
+        <v>1.486887141514261</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.878041462184892</v>
@@ -30246,7 +30198,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.484210210986735</v>
+        <v>1.422588437170431</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.449020344504635</v>
